--- a/csv/results.xlsx
+++ b/csv/results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eric_\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eric_\PycharmProjects\bga_paper\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0613D92-582E-4FF4-86B2-E8A801D7A869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A492FE9C-876A-49A9-A458-44CB59C15E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="1954" windowWidth="16457" windowHeight="8435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5571" yWindow="2263" windowWidth="16458" windowHeight="8426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -430,7 +430,7 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -485,13 +485,13 @@
         <v>7</v>
       </c>
       <c r="D2" s="1">
-        <v>0.961758</v>
+        <v>0.96555800000000003</v>
       </c>
       <c r="E2" s="1">
-        <v>0.94635000000000002</v>
+        <v>0.94413899999999995</v>
       </c>
       <c r="F2" s="1">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="G2" s="1">
         <v>0.99</v>
@@ -551,16 +551,16 @@
         <v>10</v>
       </c>
       <c r="D4" s="1">
-        <v>0.75882799999999995</v>
+        <v>0.75946199999999997</v>
       </c>
       <c r="E4" s="1">
-        <v>0.72539799999999999</v>
+        <v>0.71939900000000001</v>
       </c>
       <c r="F4" s="1">
         <v>0.76</v>
       </c>
       <c r="G4" s="1">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -682,9 +682,6 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
     </row>
     <row r="10" spans="1:18" ht="16.3" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
@@ -702,9 +699,6 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:18" ht="16.3" x14ac:dyDescent="0.5">
       <c r="A11" s="1"/>
@@ -722,9 +716,6 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
     </row>
     <row r="12" spans="1:18" ht="16.3" x14ac:dyDescent="0.5">
       <c r="A12" s="1"/>
@@ -742,9 +733,6 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:18" ht="16.3" x14ac:dyDescent="0.5">
       <c r="A13" s="1"/>
@@ -762,9 +750,6 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:18" ht="16.3" x14ac:dyDescent="0.5">
       <c r="A14" s="1"/>
